--- a/results/I3_N5_M2_T30_C200_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.4619617937772</v>
+        <v>822.8728587124745</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.33196179377335</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.420950226667207</v>
+        <v>4.02175110787769</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.420950226667207</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>574.5000000000039</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.63</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.224115997544416</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.87307415243499</v>
+        <v>23.8863479000213</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>12.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.50974573999829</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.77588400245558</v>
+        <v>27.07084158034161</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.9306959666655</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.71000000524998</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,85 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>210.9449999999999</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>214.58</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>216.7850000000001</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>215.305</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>225.4099999999999</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999911</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999916</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999992</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999919</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999992</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>238.5950000000004</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>233.0950000000004</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>244.7250000000004</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>246.9450000000004</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>240.8650000000004</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>130.0800000000004</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>136.1750000000004</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>138.0800000000004</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>143.2</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>140.3750000000004</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>238.5950000000004</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>233.0950000000004</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>244.7250000000004</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>246.9450000000004</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>240.8650000000004</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>210.9449999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>214.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>216.7850000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>215.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>225.4099999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>38.59500000000043</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.09500000000041</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>44.72500000000041</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>46.94500000000045</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>40.86500000000042</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.94499999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>14.57999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.78500000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.40999999999991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1845,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2095,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2139,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
